--- a/3 компании.xlsx
+++ b/3 компании.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hackathon2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C075EE-FEE8-455D-9BAF-5BE26CB09DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7211B291-2E92-45B8-B4D2-35B28361EB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -539,10 +539,10 @@
     <t>ПРОТОКОЛ КОНТРОЛЯ ПАРАМЕТРОВ КАЧЕСТВА УСЛУГ ПОДВИЖНОЙ РАДИОТЕЛЕФОННОЙ СВЯЗИ № 32 от «12» сентября 2021 г.</t>
   </si>
   <si>
-    <t>ФИЛИАЛ ФГУП «ГРЧЦ» В СЕВЕР-КАВКАЗСКОМ ФЕДЕРАЛЬНОМ ОКРУГЕ</t>
-  </si>
-  <si>
     <t>Место проведения контроля: г. Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>ФИЛИАЛ ФГУП «ГРЧЦ» В СЕВЕРО-КАВКАЗСКОМ ФЕДЕРАЛЬНОМ ОКРУГЕ</t>
   </si>
 </sst>
 </file>
@@ -1343,6 +1343,21 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1351,21 +1366,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -1800,7 +1800,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="A9" sqref="A9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1816,100 +1816,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
+      <c r="A2" s="84"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="79" t="s">
         <v>153</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
     </row>
     <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="79" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="83" t="s">
-        <v>166</v>
-      </c>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
+      <c r="A8" s="80" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
     </row>
     <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="80"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
+      <c r="A9" s="79"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="81" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
     </row>
     <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -1921,54 +1921,54 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="77" t="s">
         <v>160</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="81" t="s">
-        <v>167</v>
-      </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
+      <c r="A14" s="77" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="77" t="s">
         <v>151</v>
       </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="78" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
     </row>
     <row r="17" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
@@ -2384,6 +2384,12 @@
     <row r="48" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A15:F15"/>
@@ -2393,12 +2399,6 @@
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.6692913385826772" right="0.6692913385826772" top="0.74803149606299213" bottom="0.74803149606299213" header="0.27559055118110237" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" scale="52" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>

--- a/3 компании.xlsx
+++ b/3 компании.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hackathon2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7211B291-2E92-45B8-B4D2-35B28361EB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09354878-E993-411D-AC23-3F460EC438AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -539,10 +539,10 @@
     <t>ПРОТОКОЛ КОНТРОЛЯ ПАРАМЕТРОВ КАЧЕСТВА УСЛУГ ПОДВИЖНОЙ РАДИОТЕЛЕФОННОЙ СВЯЗИ № 32 от «12» сентября 2021 г.</t>
   </si>
   <si>
-    <t>Место проведения контроля: г. Санкт-Петербург</t>
-  </si>
-  <si>
-    <t>ФИЛИАЛ ФГУП «ГРЧЦ» В СЕВЕРО-КАВКАЗСКОМ ФЕДЕРАЛЬНОМ ОКРУГЕ</t>
+    <t>ФИЛИАЛ ФГУП «ГРЧЦ» В УРАЛЬСКОМ ФЕДЕРАЛЬНОМ ОКРУГЕ</t>
+  </si>
+  <si>
+    <t>Место проведения контроля: г. Москва</t>
   </si>
 </sst>
 </file>
@@ -1800,7 +1800,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:F9"/>
+      <selection activeCell="A15" sqref="A15:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="80" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B8" s="80"/>
       <c r="C8" s="80"/>
@@ -1942,7 +1942,7 @@
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="77" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B14" s="77"/>
       <c r="C14" s="77"/>
